--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_40.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_40.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2366759.2666149</v>
+        <v>2492532.50967227</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18107006.33600775</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1284537.005234245</v>
+        <v>278692.0725916863</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5002507.44346974</v>
+        <v>5282427.463108894</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +661,7 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>75.38641632068206</v>
+        <v>332.4291174559667</v>
       </c>
       <c r="D2" t="n">
         <v>424.2958575201043</v>
@@ -677,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -814,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -865,22 +867,22 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>253.9858505981126</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>143.5846376952537</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>424.2958575201043</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>298.2554478884243</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>257.1273843349796</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -981,7 +983,7 @@
         <v>94.13938596491228</v>
       </c>
       <c r="E6" t="n">
-        <v>93.17921052631583</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F6" t="n">
         <v>82.55</v>
@@ -1054,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>22.45879568511439</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1105,7 +1107,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>161.5759650274881</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1117,10 +1119,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>332.4291174559667</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>424.2958575201043</v>
+        <v>161.0265270205335</v>
       </c>
       <c r="E8" t="n">
-        <v>424.2958575201043</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1181,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1291,25 +1293,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>116.6137263521511</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>94.4312367321524</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,22 +1341,22 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
@@ -1382,7 +1384,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>251.2663580662112</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1537,7 +1539,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>14.14416275345333</v>
       </c>
       <c r="G13" t="n">
         <v>163.9353622244306</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1604,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>117.374163235897</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
@@ -1616,16 +1618,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629695</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791314378</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.8153550780014</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1670,10 +1672,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="15">
@@ -1771,16 +1773,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>53.9004557069453</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1850,7 +1852,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932889</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
@@ -1862,7 +1864,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2005,22 +2007,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>54.18430635300722</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>119.8634463900534</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
         <v>157.6489550149833</v>
@@ -2093,7 +2095,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629699</v>
       </c>
       <c r="H20" t="n">
         <v>286.2388530112159</v>
@@ -2239,7 +2241,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
         <v>164.2192128704925</v>
@@ -2254,10 +2256,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>59.41244209702465</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2330,7 +2332,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>397.3838530629699</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H23" t="n">
         <v>286.2388530112159</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>86.74508580040327</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
         <v>170.8360944016073</v>
@@ -2485,13 +2487,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2728,10 +2730,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>122.9742767430536</v>
       </c>
       <c r="T28" t="n">
-        <v>16.05512456153178</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
@@ -2962,13 +2964,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3007,7 +3009,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>54.66258501924847</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3044,7 +3046,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H32" t="n">
-        <v>286.238853011217</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I32" t="n">
         <v>0.4126214791313976</v>
@@ -3202,10 +3204,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
-        <v>249.4112747763479</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
         <v>269.3061403695714</v>
@@ -3263,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>421.6239533009273</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.3484266092796</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>431.1380654981685</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>429.0243759141564</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>423.176133815753</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>396.9712315838374</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>285.8262315320845</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.40273359887</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>217.4539333765604</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>256.2174581770219</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
-        <v>358.5781590863804</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>400.3942785639456</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.538417307351</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>403.7906409842117</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.4878110526659</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>170.423472922476</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>167.6478022326388</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.5227407452992</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.0905310873979</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.36072825394005</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.2363335358519</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
-        <v>243.0080304781979</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>275.2360492602944</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>283.6733315691425</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>250.783397018748</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>242.5252156407903</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.7328524999014</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>421.6239533009273</v>
+        <v>422.0365747800599</v>
       </c>
       <c r="C38" t="n">
-        <v>433.3484266092796</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.1380654981685</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>429.0243759141564</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.176133815753</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>396.9712315838369</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>285.8262315320845</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.40273359887</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>217.4539333765604</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
-        <v>256.2174581770219</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>358.5781590863804</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>400.3942785639456</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.538417307351</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>403.7906409842117</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3658,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.4878110526659</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>170.423472922476</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>163.8065913913612</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>167.6478022326388</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>174.52736201873</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.5227407452992</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3709,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>26.24351759540708</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
-        <v>243.0080304781979</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>275.2360492602944</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>283.6733315691425</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>268.89351889044</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>242.5252156407903</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.7328524999014</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>421.6239533009273</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.3484266092796</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.1380654981685</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>429.0243759141564</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.176133815753</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>74.64200410124789</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>256.2174581770219</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.3942785639456</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.538417307351</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>403.7906409842117</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.4878110526659</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.423472922476</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>163.8065913913612</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>167.6478022326388</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>174.52736201873</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.5227407452992</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>26.24351759540663</v>
+        <v>75.86622810093029</v>
       </c>
       <c r="T43" t="n">
-        <v>243.0080304781979</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>275.2360492602944</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>283.6733315691425</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>268.89351889044</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>242.5252156407903</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.7328524999014</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>421.6239533009273</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.3484266092796</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>431.1380654981685</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>429.0243759141564</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.176133815753</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>396.9712315838374</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>285.8262315320845</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>48.45627772629426</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.538417307351</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>403.7906409842117</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4132,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.4878110526659</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>170.423472922476</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>163.8065913913612</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>167.6478022326388</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>174.52736201873</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.5227407452992</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.2363335358519</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
-        <v>243.0080304781979</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>275.2360492602944</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>283.6733315691425</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>268.89351889044</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>111.5323997003449</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.7328524999014</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4304,49 +4306,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1395.53913136414</v>
+        <v>1654.761434047123</v>
       </c>
       <c r="C2" t="n">
-        <v>1319.391236090724</v>
+        <v>1318.974446717864</v>
       </c>
       <c r="D2" t="n">
-        <v>890.8095618279922</v>
+        <v>890.3927724551322</v>
       </c>
       <c r="E2" t="n">
-        <v>462.2278875652606</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="F2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L2" t="n">
+        <v>874.0494664914149</v>
+      </c>
+      <c r="M2" t="n">
+        <v>874.0494664914149</v>
+      </c>
+      <c r="N2" t="n">
+        <v>874.0494664914149</v>
+      </c>
+      <c r="O2" t="n">
         <v>1107.976466382457</v>
       </c>
-      <c r="M2" t="n">
-        <v>1528.02936532736</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1528.02936532736</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1528.02936532736</v>
-      </c>
       <c r="P2" t="n">
-        <v>1528.02936532736</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q2" t="n">
         <v>1528.02936532736</v>
@@ -4361,19 +4363,19 @@
         <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1437.961127397434</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>1437.961127397434</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W2" t="n">
-        <v>1437.146076848872</v>
+        <v>1696.368379531855</v>
       </c>
       <c r="X2" t="n">
-        <v>1422.044017468586</v>
+        <v>1681.26632015157</v>
       </c>
       <c r="Y2" t="n">
-        <v>1417.798297808644</v>
+        <v>1677.020600491627</v>
       </c>
     </row>
     <row r="3">
@@ -4410,22 +4412,22 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>384.5656667282782</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="L3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
         <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>1580.010651986078</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>1580.010651986078</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
-        <v>1580.010651986078</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q3" t="n">
         <v>1580.010651986078</v>
@@ -4462,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>940.4401176967148</v>
+        <v>288.1948928011053</v>
       </c>
       <c r="C4" t="n">
-        <v>940.4401176967148</v>
+        <v>288.1948928011053</v>
       </c>
       <c r="D4" t="n">
-        <v>774.5621248982375</v>
+        <v>288.1948928011053</v>
       </c>
       <c r="E4" t="n">
-        <v>604.8041211489747</v>
+        <v>288.1948928011053</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>288.1948928011053</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>122.603617826933</v>
       </c>
       <c r="H4" t="n">
         <v>122.603617826933</v>
@@ -4489,19 +4491,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>308.7021231727439</v>
       </c>
       <c r="L4" t="n">
-        <v>437.4083829648294</v>
+        <v>726.9120049407049</v>
       </c>
       <c r="M4" t="n">
-        <v>857.4612819097326</v>
+        <v>726.9120049407049</v>
       </c>
       <c r="N4" t="n">
-        <v>1277.514180854636</v>
+        <v>930.0072868842942</v>
       </c>
       <c r="O4" t="n">
-        <v>1697.183430080417</v>
+        <v>1349.676536110076</v>
       </c>
       <c r="P4" t="n">
         <v>1697.183430080417</v>
@@ -4513,25 +4515,25 @@
         <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1675.765608785789</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1675.765608785789</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U4" t="n">
-        <v>1419.214244545271</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V4" t="n">
-        <v>1132.258736415702</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="W4" t="n">
-        <v>1132.258736415702</v>
+        <v>433.2298803720686</v>
       </c>
       <c r="X4" t="n">
-        <v>1132.258736415702</v>
+        <v>288.1948928011053</v>
       </c>
       <c r="Y4" t="n">
-        <v>1132.258736415702</v>
+        <v>288.1948928011053</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1654.761434047123</v>
+        <v>459.5121464321339</v>
       </c>
       <c r="C5" t="n">
-        <v>1620.659365270951</v>
+        <v>425.4100776559612</v>
       </c>
       <c r="D5" t="n">
-        <v>1192.077691008219</v>
+        <v>393.5406968708098</v>
       </c>
       <c r="E5" t="n">
-        <v>763.4960167454872</v>
+        <v>363.806356069509</v>
       </c>
       <c r="F5" t="n">
-        <v>335.6285871546949</v>
+        <v>339.9793305191208</v>
       </c>
       <c r="G5" t="n">
-        <v>34.36045797446834</v>
+        <v>339.9793305191208</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>50.84917596233711</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947712</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>50.43238658947712</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>480.1629125864612</v>
       </c>
       <c r="L5" t="n">
-        <v>453.9965675465116</v>
+        <v>1104.26369663124</v>
       </c>
       <c r="M5" t="n">
-        <v>453.9965675465116</v>
+        <v>1728.36448067602</v>
       </c>
       <c r="N5" t="n">
-        <v>453.9965675465116</v>
+        <v>2352.465264720799</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>2352.465264720799</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>2352.465264720799</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2352.465264720799</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473856</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2437.967455657693</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2217.900228530732</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>1958.677925847748</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>1958.677925847748</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>1553.822471258782</v>
       </c>
       <c r="X5" t="n">
-        <v>1681.26632015157</v>
+        <v>1294.097840617388</v>
       </c>
       <c r="Y5" t="n">
-        <v>1677.020600491627</v>
+        <v>885.8117169170416</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807699</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>450.1476704174122</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639655</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909192</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>177.5531285070808</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>92.16803877326464</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947712</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.49605974993472</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>384.5656667282782</v>
+        <v>1025.155168760926</v>
       </c>
       <c r="L6" t="n">
-        <v>384.5656667282782</v>
+        <v>1025.155168760926</v>
       </c>
       <c r="M6" t="n">
-        <v>384.5656667282782</v>
+        <v>1025.155168760926</v>
       </c>
       <c r="N6" t="n">
-        <v>384.5656667282782</v>
+        <v>1025.155168760926</v>
       </c>
       <c r="O6" t="n">
-        <v>739.9048540962709</v>
+        <v>1025.155168760926</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424324</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813123</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.9080326605331</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>288.4816106254103</v>
+        <v>1012.274025098919</v>
       </c>
       <c r="C7" t="n">
-        <v>288.4816106254103</v>
+        <v>839.7123135821442</v>
       </c>
       <c r="D7" t="n">
-        <v>122.603617826933</v>
+        <v>673.834320783667</v>
       </c>
       <c r="E7" t="n">
-        <v>122.603617826933</v>
+        <v>504.0763170344042</v>
       </c>
       <c r="F7" t="n">
-        <v>122.603617826933</v>
+        <v>327.3692629961604</v>
       </c>
       <c r="G7" t="n">
-        <v>122.603617826933</v>
+        <v>161.7779880219881</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>139.0923358148018</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947712</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>137.012071754167</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>411.7705263253026</v>
       </c>
       <c r="L7" t="n">
-        <v>33.94366860160834</v>
+        <v>829.9804080932637</v>
       </c>
       <c r="M7" t="n">
-        <v>453.9965675465116</v>
+        <v>1289.464275274177</v>
       </c>
       <c r="N7" t="n">
-        <v>874.0494664914149</v>
+        <v>1731.723078431821</v>
       </c>
       <c r="O7" t="n">
-        <v>1293.718715717196</v>
+        <v>2151.392327657602</v>
       </c>
       <c r="P7" t="n">
-        <v>1641.225609687538</v>
+        <v>2498.899221627944</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473856</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2500.201508179228</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2340.960139477224</v>
       </c>
       <c r="T7" t="n">
-        <v>1353.316194601475</v>
+        <v>2095.08069305568</v>
       </c>
       <c r="U7" t="n">
-        <v>1074.88319385458</v>
+        <v>1816.647692308785</v>
       </c>
       <c r="V7" t="n">
-        <v>787.9276857250104</v>
+        <v>1529.692184179215</v>
       </c>
       <c r="W7" t="n">
-        <v>515.901281311302</v>
+        <v>1257.665779765507</v>
       </c>
       <c r="X7" t="n">
-        <v>515.901281311302</v>
+        <v>1012.274025098919</v>
       </c>
       <c r="Y7" t="n">
-        <v>288.4816106254103</v>
+        <v>1012.274025098919</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1654.761434047123</v>
+        <v>707.7581132933927</v>
       </c>
       <c r="C8" t="n">
-        <v>1318.974446717864</v>
+        <v>269.6156404768161</v>
       </c>
       <c r="D8" t="n">
-        <v>890.3927724551322</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E8" t="n">
-        <v>461.8110981924006</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>453.9965675465116</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>453.9965675465116</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="M8" t="n">
-        <v>453.9965675465116</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N8" t="n">
-        <v>687.9235674375537</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="O8" t="n">
-        <v>1107.976466382457</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="W8" t="n">
-        <v>1696.368379531855</v>
+        <v>1961.486270899337</v>
       </c>
       <c r="X8" t="n">
-        <v>1681.26632015157</v>
+        <v>1542.343807478647</v>
       </c>
       <c r="Y8" t="n">
-        <v>1677.020600491627</v>
+        <v>1134.057683778301</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>969.5718112513407</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>851.7801684713901</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>685.9021756729128</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E10" t="n">
-        <v>516.14417192365</v>
+        <v>307.6524407281256</v>
       </c>
       <c r="F10" t="n">
-        <v>339.4371178854062</v>
+        <v>307.6524407281256</v>
       </c>
       <c r="G10" t="n">
-        <v>173.8458429112338</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>120.5233537662982</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>538.7332355342593</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>761.8145120199619</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>761.8145120199619</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1181.483761245743</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1675.765608785789</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1675.765608785789</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1675.765608785789</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1388.81010065622</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1388.81010065622</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1388.81010065622</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>1161.390429970328</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2355.196738232749</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>1917.054265416173</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1481.144480590617</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>1047.369735748912</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>619.5023061581201</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>365.697904071038</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H11" t="n">
-        <v>76.56774951425426</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>76.15096014139426</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>511.4056475943122</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>511.4056475943122</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L11" t="n">
-        <v>511.4056475943122</v>
+        <v>1612.575493976557</v>
       </c>
       <c r="M11" t="n">
-        <v>511.4056475943122</v>
+        <v>2769.623329187108</v>
       </c>
       <c r="N11" t="n">
-        <v>1321.217149774911</v>
+        <v>3895.354312623555</v>
       </c>
       <c r="O11" t="n">
-        <v>2263.585281524665</v>
+        <v>3895.354312623555</v>
       </c>
       <c r="P11" t="n">
-        <v>3091.895156358061</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>3638.393942316656</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
-        <v>3807.548007069713</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>3807.548007069713</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>3587.480779942752</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U11" t="n">
-        <v>3587.480779942752</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>3587.480779942752</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W11" t="n">
-        <v>3182.625325353785</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>2763.482861933096</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y11" t="n">
-        <v>2355.196738232749</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>582.322705132687</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>475.8662439693293</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>380.7759551158826</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>286.6555404428363</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>203.2717020589979</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>117.8866123251818</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>76.15096014139426</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>76.15096014139426</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J12" t="n">
-        <v>76.15096014139426</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K12" t="n">
-        <v>756.8844802117716</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L12" t="n">
-        <v>1699.252611961525</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M12" t="n">
-        <v>1699.252611961525</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N12" t="n">
-        <v>1699.252611961525</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="O12" t="n">
-        <v>1699.252611961525</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P12" t="n">
-        <v>1739.390721620203</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q12" t="n">
-        <v>1739.390721620203</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R12" t="n">
-        <v>1739.390721620203</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1675.935284068586</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1545.756640399188</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1369.420093399156</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1170.302575461155</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>984.9798211943494</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>830.1123854332294</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>703.6266062124502</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>926.6469972183254</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C13" t="n">
-        <v>754.0852857015503</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D13" t="n">
-        <v>588.207292903073</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E13" t="n">
-        <v>418.4492891538104</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F13" t="n">
-        <v>241.7422351155666</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G13" t="n">
-        <v>76.15096014139426</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H13" t="n">
-        <v>76.15096014139426</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
-        <v>76.15096014139426</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>162.7306453060841</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>437.4890998772197</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>855.6989816451807</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1315.182848826094</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1757.441651983738</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2177.11090120952</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2524.617795179862</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2692.810570044194</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2692.810570044194</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S13" t="n">
-        <v>2674.571401001509</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T13" t="n">
-        <v>2428.691954579965</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U13" t="n">
-        <v>2150.25895383307</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V13" t="n">
-        <v>1863.3034457035</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W13" t="n">
-        <v>1591.277041289792</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X13" t="n">
-        <v>1345.885286623204</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y13" t="n">
-        <v>1118.465615937313</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2502.373378149543</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C14" t="n">
-        <v>2064.230905332967</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D14" t="n">
-        <v>1628.321120507411</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>1194.546375665706</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F14" t="n">
-        <v>766.6789460749142</v>
+        <v>793.2056155771603</v>
       </c>
       <c r="G14" t="n">
-        <v>365.281114698178</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>76.15096014139426</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I14" t="n">
-        <v>76.15096014139426</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>511.4056475943122</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>925.3478039837521</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>925.3478039837521</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>1867.715935733506</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N14" t="n">
-        <v>2810.08406748326</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>2810.08406748326</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
-        <v>3638.393942316656</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>3638.393942316656</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>3807.548007069713</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>3807.548007069713</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>3807.548007069713</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>3807.548007069713</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>3444.93105700354</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
-        <v>3040.075602414573</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>2620.933138993884</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y14" t="n">
-        <v>2620.933138993884</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>582.322705132687</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>475.8662439693293</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>380.7759551158826</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>286.6555404428363</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>203.2717020589979</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>117.8866123251818</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>76.15096014139426</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>102.2146333018519</v>
+        <v>102.2970399865835</v>
       </c>
       <c r="J15" t="n">
-        <v>426.7729582680642</v>
+        <v>426.8553649527958</v>
       </c>
       <c r="K15" t="n">
-        <v>426.7729582680642</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L15" t="n">
-        <v>426.7729582680642</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M15" t="n">
-        <v>426.7729582680642</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N15" t="n">
-        <v>1369.141090017818</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O15" t="n">
-        <v>1369.141090017818</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P15" t="n">
-        <v>1369.141090017818</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1622.217943525863</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1739.390721620203</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1675.935284068586</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1545.756640399188</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1369.420093399156</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1170.302575461155</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>984.9798211943494</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>830.1123854332294</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>703.6266062124502</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>926.6469972183254</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C16" t="n">
-        <v>754.0852857015503</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D16" t="n">
-        <v>588.207292903073</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E16" t="n">
-        <v>418.4492891538104</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="F16" t="n">
-        <v>241.7422351155666</v>
+        <v>296.6079193348953</v>
       </c>
       <c r="G16" t="n">
-        <v>76.15096014139426</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H16" t="n">
-        <v>76.15096014139426</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
-        <v>76.15096014139426</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>162.7306453060841</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>437.4890998772197</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>855.6989816451807</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1315.182848826094</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1757.441651983738</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2177.11090120952</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2524.617795179862</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2692.810570044194</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2692.810570044194</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2674.571401001509</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T16" t="n">
-        <v>2428.691954579965</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U16" t="n">
-        <v>2150.25895383307</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V16" t="n">
-        <v>1863.3034457035</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W16" t="n">
-        <v>1591.277041289792</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X16" t="n">
-        <v>1345.885286623204</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y16" t="n">
-        <v>1118.465615937313</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="17">
@@ -5498,43 +5500,43 @@
         <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>775.0235620688178</v>
+        <v>1286.300469346936</v>
       </c>
       <c r="L17" t="n">
-        <v>1850.083528321677</v>
+        <v>1286.300469346936</v>
       </c>
       <c r="M17" t="n">
-        <v>3007.131363532228</v>
+        <v>2443.348304557487</v>
       </c>
       <c r="N17" t="n">
-        <v>4132.862346968675</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="O17" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
         <v>5113.042013538981</v>
@@ -5592,25 +5594,25 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>452.8828383974496</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K18" t="n">
-        <v>1107.588885023173</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L18" t="n">
-        <v>1107.588885023173</v>
+        <v>1082.867562242341</v>
       </c>
       <c r="M18" t="n">
-        <v>1107.588885023173</v>
+        <v>1082.867562242341</v>
       </c>
       <c r="N18" t="n">
-        <v>1107.588885023173</v>
+        <v>1082.867562242341</v>
       </c>
       <c r="O18" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P18" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q18" t="n">
         <v>1648.327823655249</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>811.7546776883914</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C19" t="n">
-        <v>639.1929661716164</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D19" t="n">
-        <v>584.4613435928212</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E19" t="n">
-        <v>584.4613435928212</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="F19" t="n">
-        <v>407.7542895545774</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="G19" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5695,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T19" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U19" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V19" t="n">
-        <v>1748.411126173566</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W19" t="n">
-        <v>1476.384721759858</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X19" t="n">
-        <v>1230.99296709327</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y19" t="n">
-        <v>1003.573296407379</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5750,52 +5752,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>1850.083528321677</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="M20" t="n">
-        <v>3007.131363532228</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N20" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
         <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5829,22 +5831,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J21" t="n">
-        <v>426.819165236992</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.552685307369</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="L21" t="n">
-        <v>1107.552685307369</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="M21" t="n">
-        <v>1107.552685307369</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="N21" t="n">
-        <v>1107.552685307369</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="O21" t="n">
-        <v>1107.552685307369</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="P21" t="n">
         <v>1224.761663117513</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1008.757289365886</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5932,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2232.36924598063</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>1945.413737851061</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1673.387333437352</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1427.995578770765</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>1200.575908084873</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C23" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D23" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E23" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5990,49 +5992,49 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>102.2608402707796</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L23" t="n">
-        <v>1177.320806523639</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M23" t="n">
-        <v>2334.36864173419</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N23" t="n">
-        <v>3460.099625170637</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O23" t="n">
-        <v>4440.279291740943</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R23" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S23" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T23" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U23" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V23" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C24" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D24" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E24" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F24" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G24" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H24" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>3449.802252060173</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>3449.802252060173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>3449.802252060173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L24" t="n">
-        <v>3449.802252060173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M24" t="n">
-        <v>4648.527086152673</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="N24" t="n">
-        <v>5113.042013538981</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="O24" t="n">
-        <v>5113.042013538981</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P24" t="n">
-        <v>5113.042013538981</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q24" t="n">
-        <v>5113.042013538981</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S24" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T24" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U24" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V24" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W24" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X24" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y24" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="25">
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>915.9519976190925</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>743.3902861023174</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>577.5122933038401</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>407.7542895545774</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
         <v>102.2608402707796</v>
@@ -6172,25 +6174,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6230,22 +6232,22 @@
         <v>936.6111322289576</v>
       </c>
       <c r="L26" t="n">
-        <v>1463.16863798718</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M26" t="n">
-        <v>1463.16863798718</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C27" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D27" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E27" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F27" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G27" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H27" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>3475.865925220631</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J27" t="n">
-        <v>3800.424250186843</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K27" t="n">
-        <v>3800.424250186843</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L27" t="n">
-        <v>3800.424250186843</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M27" t="n">
-        <v>3800.424250186843</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N27" t="n">
-        <v>3800.424250186843</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="O27" t="n">
-        <v>3800.424250186843</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P27" t="n">
-        <v>4455.130296812566</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q27" t="n">
-        <v>4995.869235444641</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R27" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S27" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T27" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U27" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V27" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W27" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X27" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y27" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1041.416826573035</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C28" t="n">
-        <v>868.8551150562604</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D28" t="n">
-        <v>702.9771222577831</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E28" t="n">
-        <v>533.2191185085204</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F28" t="n">
-        <v>356.5120644702766</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G28" t="n">
-        <v>190.9207894961043</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J28" t="n">
-        <v>188.8405254354695</v>
+        <v>188.8405254354649</v>
       </c>
       <c r="K28" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066004</v>
       </c>
       <c r="L28" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745615</v>
       </c>
       <c r="M28" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955475</v>
       </c>
       <c r="N28" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113119</v>
       </c>
       <c r="O28" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.2207813389</v>
       </c>
       <c r="P28" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309242</v>
       </c>
       <c r="Q28" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173575</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173575</v>
       </c>
       <c r="S28" t="n">
-        <v>2559.679081471576</v>
+        <v>2594.704009018975</v>
       </c>
       <c r="T28" t="n">
-        <v>2543.461783934675</v>
+        <v>2594.704009018975</v>
       </c>
       <c r="U28" t="n">
-        <v>2265.02878318778</v>
+        <v>2316.271008272081</v>
       </c>
       <c r="V28" t="n">
-        <v>1978.07327505821</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W28" t="n">
-        <v>1706.046870644502</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X28" t="n">
-        <v>1460.655115977914</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y28" t="n">
-        <v>1233.235445292023</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="29">
@@ -6473,13 +6475,13 @@
         <v>3168.718933692368</v>
       </c>
       <c r="N29" t="n">
-        <v>3168.718933692368</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O29" t="n">
-        <v>4148.898600262674</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P29" t="n">
-        <v>4977.20847509607</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q29" t="n">
         <v>5113.042013538981</v>
@@ -6543,22 +6545,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K30" t="n">
-        <v>782.9943603411569</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L30" t="n">
-        <v>782.9943603411569</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M30" t="n">
-        <v>782.9943603411569</v>
+        <v>531.6733301892817</v>
       </c>
       <c r="N30" t="n">
-        <v>782.9943603411569</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O30" t="n">
-        <v>782.9943603411569</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P30" t="n">
-        <v>1602.717526820355</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q30" t="n">
         <v>1765.500601749588</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1181.319000882661</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C31" t="n">
-        <v>1008.757289365886</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D31" t="n">
-        <v>842.8792965674086</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2697.502628878951</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2451.623182457406</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>2173.190181710511</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V31" t="n">
-        <v>2117.975449367836</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W31" t="n">
-        <v>1845.949044954127</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X31" t="n">
-        <v>1600.55729028754</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y31" t="n">
-        <v>1373.137619601648</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C32" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D32" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E32" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6701,49 +6703,49 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>775.0235620688178</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L32" t="n">
-        <v>1850.083528321677</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532228</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968675</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S32" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T32" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U32" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V32" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6780,22 +6782,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K33" t="n">
-        <v>405.0384966383147</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L33" t="n">
-        <v>405.0384966383147</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M33" t="n">
-        <v>405.0384966383147</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="N33" t="n">
-        <v>405.0384966383147</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="O33" t="n">
-        <v>405.0384966383147</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P33" t="n">
-        <v>1224.761663117513</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q33" t="n">
         <v>1765.500601749588</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1092.659051657336</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C34" t="n">
-        <v>920.0973401405612</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D34" t="n">
-        <v>754.2193473420839</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E34" t="n">
-        <v>584.4613435928212</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F34" t="n">
-        <v>407.7542895545774</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G34" t="n">
-        <v>242.1630145804051</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H34" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6883,25 +6885,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T34" t="n">
-        <v>2559.679081471576</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U34" t="n">
-        <v>2281.246080724681</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V34" t="n">
-        <v>2029.315500142511</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W34" t="n">
-        <v>1757.289095728803</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X34" t="n">
-        <v>1511.897341062215</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y34" t="n">
-        <v>1284.477670376323</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2525.85493345824</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
-        <v>2088.129250014523</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1652.636254561828</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E35" t="n">
-        <v>1219.278299092983</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>791.8276588750509</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>390.8466168711748</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.133251687251</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.133251687251</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>936.483543645429</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>2011.543509898288</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2011.543509898288</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>3137.274493334735</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>4117.454159905042</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>4945.764034738439</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5106.662584362552</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
-        <v>5106.662584362552</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5023.427499919248</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4803.777062165147</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4544.971548855024</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4182.77138816171</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3778.332722945604</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3359.607048897774</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2951.737714570288</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3949.594567875036</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>3843.138106711678</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D36" t="n">
-        <v>3748.047817858231</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E36" t="n">
-        <v>3653.927403185185</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F36" t="n">
-        <v>3570.543564801347</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
-        <v>3485.158475067531</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H36" t="n">
-        <v>3443.422822883743</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>3469.486496044201</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J36" t="n">
-        <v>3794.044821010413</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K36" t="n">
-        <v>3794.044821010413</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L36" t="n">
-        <v>3794.044821010413</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="M36" t="n">
-        <v>3794.044821010413</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="N36" t="n">
-        <v>3794.044821010413</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="O36" t="n">
-        <v>3794.044821010413</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P36" t="n">
-        <v>4448.750867636137</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q36" t="n">
-        <v>4989.489806268211</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R36" t="n">
-        <v>5106.662584362552</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S36" t="n">
-        <v>5043.207146810934</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T36" t="n">
-        <v>4913.028503141536</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U36" t="n">
-        <v>4736.691956141504</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V36" t="n">
-        <v>4537.574438203504</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W36" t="n">
-        <v>4352.251683936698</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X36" t="n">
-        <v>4197.384248175578</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y36" t="n">
-        <v>4070.898468954799</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>836.5224185981115</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>664.3774964541964</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>664.3774964541964</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>495.0362820777936</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>495.0362820777936</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>329.8617964764812</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
-        <v>190.3764115397157</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J37" t="n">
-        <v>189.1214321162809</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>464.2883819517565</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L37" t="n">
-        <v>882.9067589840578</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M37" t="n">
-        <v>1342.799121429311</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.466419851296</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O37" t="n">
-        <v>2205.544164341417</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P37" t="n">
-        <v>2553.459553576099</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q37" t="n">
-        <v>2722.060823704771</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2722.060823704771</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2563.236244375627</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2317.773587326943</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2039.757375952908</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1753.218657196198</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1499.902094550998</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1254.927129257271</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1027.924247944239</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2525.85493345824</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2088.129250014523</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1652.636254561828</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1219.278299092983</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>791.8276588750505</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>390.8466168711748</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
-        <v>102.133251687251</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>537.3879391401689</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.738231098347</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>1371.738231098347</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2528.786066308898</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>2582.520192247198</v>
+        <v>3572.656769371182</v>
       </c>
       <c r="O38" t="n">
-        <v>3562.699858817504</v>
+        <v>4552.836435941488</v>
       </c>
       <c r="P38" t="n">
-        <v>4391.009733650901</v>
+        <v>4552.836435941488</v>
       </c>
       <c r="Q38" t="n">
-        <v>4937.508519609495</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
-        <v>5106.662584362552</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5023.427499919248</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4803.777062165147</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4544.971548855024</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4182.77138816171</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
-        <v>3778.332722945604</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3359.607048897774</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2951.737714570288</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3949.594567875036</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C39" t="n">
-        <v>3843.138106711678</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D39" t="n">
-        <v>3748.047817858231</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E39" t="n">
-        <v>3653.927403185185</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F39" t="n">
-        <v>3570.543564801347</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G39" t="n">
-        <v>3485.158475067531</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H39" t="n">
-        <v>3443.422822883743</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>3469.486496044201</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J39" t="n">
-        <v>3794.044821010413</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K39" t="n">
-        <v>4474.778341080791</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L39" t="n">
-        <v>4989.489806268211</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M39" t="n">
-        <v>4989.489806268211</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N39" t="n">
-        <v>4989.489806268211</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O39" t="n">
-        <v>4989.489806268211</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="P39" t="n">
-        <v>4989.489806268211</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q39" t="n">
-        <v>4989.489806268211</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R39" t="n">
-        <v>5106.662584362552</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S39" t="n">
-        <v>5043.207146810934</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T39" t="n">
-        <v>4913.028503141536</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U39" t="n">
-        <v>4736.691956141504</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V39" t="n">
-        <v>4537.574438203504</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W39" t="n">
-        <v>4352.251683936698</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X39" t="n">
-        <v>4197.384248175578</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y39" t="n">
-        <v>4070.898468954799</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>950.5453418998825</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>778.4004197559674</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>612.9392163303501</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>443.5980019539472</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>267.3077372885634</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
-        <v>189.1214321162809</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>464.2883819517565</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>882.9067589840578</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
-        <v>1342.799121429311</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.466419851296</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
-        <v>2205.544164341417</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>2553.459553576099</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>2722.060823704771</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2722.060823704771</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2695.552220073047</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2450.089563024362</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2172.073351650327</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>1885.534632893618</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1613.925017852769</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1368.950052559042</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1141.94717124601</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1810.050646141055</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C41" t="n">
-        <v>1372.324962697338</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D41" t="n">
-        <v>936.8319672446428</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E41" t="n">
-        <v>503.474011775798</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F41" t="n">
-        <v>76.02337155786567</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G41" t="n">
-        <v>76.02337155786567</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H41" t="n">
-        <v>76.02337155786567</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I41" t="n">
-        <v>76.02337155786567</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>511.2780590107836</v>
+        <v>451.9501773887582</v>
       </c>
       <c r="K41" t="n">
-        <v>511.2780590107836</v>
+        <v>1286.300469346936</v>
       </c>
       <c r="L41" t="n">
-        <v>1452.067282039371</v>
+        <v>1286.300469346936</v>
       </c>
       <c r="M41" t="n">
-        <v>1452.067282039371</v>
+        <v>2443.348304557487</v>
       </c>
       <c r="N41" t="n">
-        <v>2257.205852348235</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="O41" t="n">
-        <v>2257.205852348235</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
-        <v>3085.515727181632</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>3632.014513140226</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>3801.168577893283</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>3801.168577893283</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>3725.772614154649</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>3466.967100844526</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>3466.967100844526</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
-        <v>3062.528435628419</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>2643.80276158059</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>2235.933427253103</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>582.1951165491585</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>475.7386553858008</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>380.648366532354</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>286.5279518593077</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>203.1441134754693</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>117.7590237416532</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>76.02337155786567</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>102.0870447183233</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>426.6453696845356</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>426.6453696845356</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L42" t="n">
-        <v>426.6453696845356</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M42" t="n">
-        <v>426.6453696845356</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N42" t="n">
-        <v>426.6453696845356</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="O42" t="n">
-        <v>426.6453696845356</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P42" t="n">
-        <v>1198.524194404599</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q42" t="n">
-        <v>1739.263133036675</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1739.263133036675</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1675.807695485058</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1545.629051815659</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1369.292504815628</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1170.174986877627</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>984.8522326108209</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>829.9847968497008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>703.4990176289216</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>924.4354617704971</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C43" t="n">
-        <v>752.290539626582</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D43" t="n">
-        <v>586.8293362009647</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E43" t="n">
-        <v>417.4881218245619</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F43" t="n">
-        <v>241.1978571591781</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G43" t="n">
-        <v>76.02337155786567</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H43" t="n">
-        <v>76.02337155786567</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I43" t="n">
-        <v>76.02337155786567</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>163.0115519868956</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>438.1785018223712</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>856.7968788546723</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1316.689241299925</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1759.35653972191</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.434284212031</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2527.349673446713</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2695.950943575385</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2695.950943575385</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2669.442339943661</v>
+        <v>2642.287896536276</v>
       </c>
       <c r="T43" t="n">
-        <v>2423.979682894977</v>
+        <v>2396.408450114731</v>
       </c>
       <c r="U43" t="n">
-        <v>2145.963471520942</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V43" t="n">
-        <v>1859.424752764232</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W43" t="n">
-        <v>1587.815137723384</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X43" t="n">
-        <v>1342.840172429656</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y43" t="n">
-        <v>1115.837291116624</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2499.745053328855</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>2062.019369885138</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1626.526374432443</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1193.168418963598</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>765.7177787456656</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>364.7367367417895</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
-        <v>76.02337155786567</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>76.02337155786567</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>511.2780590107836</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>511.2780590107836</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>1452.067282039371</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>1452.067282039371</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>1452.067282039371</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O44" t="n">
-        <v>2257.205852348235</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
-        <v>3085.515727181632</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>3632.014513140226</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>3801.168577893283</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>3801.168577893283</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>3801.168577893283</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>3801.168577893283</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>3801.168577893283</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
-        <v>3752.222842816218</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3333.497168768389</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y44" t="n">
-        <v>2925.627834440902</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>582.1951165491585</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>475.7386553858008</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>380.648366532354</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>286.5279518593077</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>203.1441134754693</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>117.7590237416532</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>76.02337155786567</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>76.02337155786567</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>400.581696524078</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1081.315216594455</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1081.351416310259</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1081.351416310259</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1081.351416310259</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1081.351416310259</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1081.351416310259</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1622.090354942335</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1739.263133036675</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1675.807695485058</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1545.629051815659</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1369.292504815628</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1170.174986877627</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>984.8522326108209</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>829.9847968497008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>703.4990176289216</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>924.4354617704971</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C46" t="n">
-        <v>752.290539626582</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D46" t="n">
-        <v>586.8293362009647</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E46" t="n">
-        <v>417.4881218245619</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
-        <v>241.1978571591781</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>76.02337155786567</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>76.02337155786567</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>76.02337155786567</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>163.0115519868956</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>438.1785018223712</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>856.7968788546723</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1316.689241299925</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1759.35653972191</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.434284212031</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2527.349673446713</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2695.950943575385</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2695.950943575385</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2537.126364246242</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T46" t="n">
-        <v>2291.663707197557</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U46" t="n">
-        <v>2013.647495823522</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V46" t="n">
-        <v>1727.108777066813</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W46" t="n">
-        <v>1455.499162025964</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X46" t="n">
-        <v>1342.840172429656</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y46" t="n">
-        <v>1115.837291116624</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="M2" t="n">
-        <v>424.2958575201044</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,16 +8060,16 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>358.9284720888815</v>
       </c>
       <c r="L3" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="M3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8076,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8137,22 +8139,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>205.1467494379689</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -8213,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>434.0712383807921</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>630.404832368464</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>630.404832368464</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>630.404832368464</v>
       </c>
       <c r="O5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,7 +8297,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>630.4048323684639</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8307,13 +8309,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>30.91440664741867</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,19 +8373,19 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
@@ -8392,7 +8394,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>56.52305090189816</v>
+        <v>22.9496038847592</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>469.682203560008</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,10 +8534,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8544,13 +8546,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8611,16 +8613,16 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>225.3346227128309</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
@@ -8693,19 +8695,19 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>817.9914163440392</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>951.8870017674283</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458549</v>
+        <v>507.105909296743</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8769,22 +8771,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>951.8870017674282</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P12" t="n">
-        <v>40.54354510977532</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -8927,25 +8929,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>418.1233902923636</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>951.8870017674283</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N14" t="n">
-        <v>951.8870017674283</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
         <v>170.8626916697543</v>
@@ -9000,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9015,7 +9017,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>951.8870017674283</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9024,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>255.6331853616618</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9161,13 +9163,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>679.5583048465032</v>
+        <v>756.3484258820594</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>1168.735187081365</v>
@@ -9176,16 +9178,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,13 +9242,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9255,13 +9257,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>571.1719812251592</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9398,16 +9400,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
@@ -9416,13 +9418,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,10 +9479,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327044</v>
+        <v>305.8360165328637</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9495,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>118.392906878933</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9638,7 +9640,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
@@ -9653,7 +9655,7 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>679.5583048465032</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9711,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9723,10 +9725,10 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1210.83316575</v>
+        <v>1207.52018712909</v>
       </c>
       <c r="N24" t="n">
-        <v>469.2069973599073</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9738,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9878,25 +9880,25 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>531.8762684426488</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9963,19 +9965,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10121,16 +10123,16 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>137.205594386779</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10191,25 +10193,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>164.4273484133669</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -10349,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465032</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -10428,25 +10430,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>305.8360165328637</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
@@ -10595,7 +10597,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10604,10 +10606,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>162.5237874991044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,16 +10661,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10677,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="P36" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10826,22 +10828,22 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>54.27689488717215</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157522</v>
+        <v>395.0015281256938</v>
       </c>
       <c r="R38" t="n">
         <v>170.8626916697543</v>
@@ -10896,16 +10898,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>519.9105708963853</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10914,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>852.0369646460714</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,19 +11059,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>353.2215526444228</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>950.2921444733208</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>813.2712831402666</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -11148,19 +11150,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>1207.52018712909</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>779.6755805253167</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11297,19 +11299,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>950.2921444733208</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O44" t="n">
-        <v>813.2712831402666</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
@@ -11370,16 +11372,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23270,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>146.1174949967575</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23425,7 +23427,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>304.6624115441617</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23513,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23561,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23659,16 +23661,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>110.0349065174853</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23701,7 +23703,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23893,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>110.0349065174853</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>48.19697732171672</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24127,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24142,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>216.236228642401</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>103.155346731394</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24373,13 +24375,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24412,7 +24414,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24616,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,10 +24651,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>34.67467827192972</v>
       </c>
       <c r="T28" t="n">
-        <v>227.3655273957975</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24850,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>229.4233680290254</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25090,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>69.71657238081424</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,16 +25125,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>34.67467827192598</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25315,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>163.8065913913612</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>174.52736201873</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>20.79102160255047</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25372,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>18.11012187169197</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25564,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.0905310873979</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>87.36072825394005</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>20.79102160255047</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>130.9928159404449</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25640,10 +25642,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>396.9712315838374</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>285.8262315320845</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25676,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.40273359887</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>142.8119292753125</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.5781590863804</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25801,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.0905310873979</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.36072825394005</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>20.79102160255047</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>130.9928159404453</v>
+        <v>81.78272691405301</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25843,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25913,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.40273359887</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.4539333765604</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.2174581770219</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.5781590863804</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>351.9380008376514</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.0905310873979</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>87.36072825394005</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>20.79102160255047</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>130.9928159404454</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>432771.2228945622</v>
+        <v>443339.8249139583</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>432771.2228945622</v>
+        <v>445242.7249522295</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>373863.6573591832</v>
+        <v>462337.5540015644</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>373863.6573591832</v>
+        <v>462337.5540015644</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>462337.5540015644</v>
+        <v>462337.5540015643</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>462337.5540015645</v>
+        <v>462337.5540015644</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>462337.5540015643</v>
+        <v>462337.5540015644</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>462337.5540015644</v>
+        <v>462337.5540015642</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>462337.5540015643</v>
+        <v>462337.5540015644</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>462451.7899169847</v>
+        <v>462337.5540015644</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>462451.7899169847</v>
+        <v>462337.5540015644</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>373977.8932746034</v>
+        <v>462337.5540015644</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>373977.8932746035</v>
+        <v>462337.5540015644</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>536147.3198904083</v>
+        <v>536147.3198904084</v>
       </c>
       <c r="C2" t="n">
         <v>536147.3198904083</v>
       </c>
       <c r="D2" t="n">
-        <v>536147.3198904084</v>
+        <v>536147.3198904083</v>
       </c>
       <c r="E2" t="n">
-        <v>426036.9974452642</v>
+        <v>526857.5841373521</v>
       </c>
       <c r="F2" t="n">
-        <v>426036.9974452642</v>
+        <v>526857.5841373523</v>
       </c>
       <c r="G2" t="n">
-        <v>526857.5841373523</v>
+        <v>526857.5841373522</v>
       </c>
       <c r="H2" t="n">
         <v>526857.5841373522</v>
@@ -26338,22 +26340,22 @@
         <v>526857.5841373522</v>
       </c>
       <c r="K2" t="n">
+        <v>526857.5841373521</v>
+      </c>
+      <c r="L2" t="n">
+        <v>526857.5841373521</v>
+      </c>
+      <c r="M2" t="n">
         <v>526857.5841373523</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>526857.5841373522</v>
       </c>
-      <c r="M2" t="n">
-        <v>527093.6775651844</v>
-      </c>
-      <c r="N2" t="n">
-        <v>527093.6775651845</v>
-      </c>
       <c r="O2" t="n">
-        <v>426273.0908730964</v>
+        <v>526857.5841373524</v>
       </c>
       <c r="P2" t="n">
-        <v>426273.0908730964</v>
+        <v>526857.5841373522</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26368,19 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501631</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998264</v>
       </c>
       <c r="E3" t="n">
-        <v>157527.1086670775</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>89454.08119078235</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,13 +26392,13 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877262</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622207</v>
       </c>
       <c r="M3" t="n">
-        <v>131410.4758771945</v>
+        <v>152200.1709379877</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,46 +26420,46 @@
         <v>199828.8262465156</v>
       </c>
       <c r="C4" t="n">
-        <v>199828.8262465156</v>
+        <v>163226.8987932457</v>
       </c>
       <c r="D4" t="n">
-        <v>199828.8262465156</v>
+        <v>156636.6412526738</v>
       </c>
       <c r="E4" t="n">
-        <v>54987.94018653804</v>
+        <v>68000.69828933279</v>
       </c>
       <c r="F4" t="n">
-        <v>54987.94018653804</v>
+        <v>68000.69828933277</v>
       </c>
       <c r="G4" t="n">
+        <v>68000.69828933275</v>
+      </c>
+      <c r="H4" t="n">
+        <v>68000.69828933277</v>
+      </c>
+      <c r="I4" t="n">
+        <v>68000.69828933279</v>
+      </c>
+      <c r="J4" t="n">
+        <v>68000.69828933275</v>
+      </c>
+      <c r="K4" t="n">
         <v>68000.69828933281</v>
       </c>
-      <c r="H4" t="n">
+      <c r="L4" t="n">
         <v>68000.69828933281</v>
       </c>
-      <c r="I4" t="n">
-        <v>68000.69828933275</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="M4" t="n">
         <v>68000.69828933279</v>
       </c>
-      <c r="K4" t="n">
+      <c r="N4" t="n">
+        <v>68000.69828933277</v>
+      </c>
+      <c r="O4" t="n">
+        <v>68000.69828933281</v>
+      </c>
+      <c r="P4" t="n">
         <v>68000.69828933279</v>
-      </c>
-      <c r="L4" t="n">
-        <v>68000.69828933277</v>
-      </c>
-      <c r="M4" t="n">
-        <v>68354.0829952794</v>
-      </c>
-      <c r="N4" t="n">
-        <v>68354.08299527942</v>
-      </c>
-      <c r="O4" t="n">
-        <v>55341.32489248463</v>
-      </c>
-      <c r="P4" t="n">
-        <v>55341.32489248463</v>
       </c>
     </row>
     <row r="5">
@@ -26470,16 +26472,16 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800261</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>57874.72970745964</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>57874.72970745964</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26502,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77655.95995743987</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77655.95995743987</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>57812.451059107</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>57812.451059107</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>134702.4048469604</v>
+        <v>134702.4048469605</v>
       </c>
       <c r="C6" t="n">
-        <v>276893.7055066703</v>
+        <v>234376.4393941437</v>
       </c>
       <c r="D6" t="n">
-        <v>276893.7055066705</v>
+        <v>293770.5585259942</v>
       </c>
       <c r="E6" t="n">
-        <v>155647.2188841891</v>
+        <v>198783.5380211769</v>
       </c>
       <c r="F6" t="n">
-        <v>313174.3275512665</v>
+        <v>381138.647242227</v>
       </c>
       <c r="G6" t="n">
-        <v>291684.5660514446</v>
+        <v>381138.6472422269</v>
       </c>
       <c r="H6" t="n">
         <v>381138.6472422269</v>
@@ -26546,22 +26548,22 @@
         <v>270124.1818972367</v>
       </c>
       <c r="K6" t="n">
-        <v>381138.647242227</v>
+        <v>328092.7926034541</v>
       </c>
       <c r="L6" t="n">
+        <v>371746.3455156045</v>
+      </c>
+      <c r="M6" t="n">
+        <v>228938.4763042393</v>
+      </c>
+      <c r="N6" t="n">
         <v>381138.6472422269</v>
       </c>
-      <c r="M6" t="n">
-        <v>249673.1587352707</v>
-      </c>
-      <c r="N6" t="n">
-        <v>381083.6346124653</v>
-      </c>
       <c r="O6" t="n">
-        <v>313119.3149215047</v>
+        <v>381138.6472422271</v>
       </c>
       <c r="P6" t="n">
-        <v>313119.3149215047</v>
+        <v>381138.6472422269</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26718,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26790,16 +26792,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.404832368464</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>951.8870017674283</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>951.8870017674283</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26820,16 +26822,16 @@
         <v>1278.260503384745</v>
       </c>
       <c r="M4" t="n">
-        <v>1276.665646090638</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="N4" t="n">
-        <v>1276.665646090638</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>950.2921444733208</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>950.2921444733208</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -26938,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27012,19 +27014,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483597</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939297</v>
       </c>
       <c r="E4" t="n">
-        <v>527.5911442473239</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>326.3735016173171</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483597</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939297</v>
       </c>
       <c r="M4" t="n">
-        <v>525.9962869532164</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,19 +27260,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483597</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939297</v>
       </c>
       <c r="M4" t="n">
-        <v>527.5911442473239</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>326.3735016173171</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,7 +27381,7 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>358.3746317677288</v>
+        <v>101.3319306324442</v>
       </c>
       <c r="D2" t="n">
         <v>7.254829457195569</v>
@@ -27397,7 +27399,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,7 +27435,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
@@ -27534,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27585,22 +27587,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>21.66282014131306</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>99.35319942466796</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -27613,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>7.254829457195569</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>5.14113987318342</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>99.12840517454441</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>157.8236544515028</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,22 +27776,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>116.0443568814148</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27825,7 +27827,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>81.84468692984115</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27837,10 +27839,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -27850,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>270.5241599567664</v>
+      </c>
+      <c r="E8" t="n">
         <v>400</v>
       </c>
-      <c r="C8" t="n">
-        <v>101.3319306324442</v>
-      </c>
-      <c r="D8" t="n">
-        <v>7.254829457195569</v>
-      </c>
-      <c r="E8" t="n">
-        <v>5.14113987318342</v>
-      </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -27901,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
@@ -27913,13 +27915,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>54.22236804945621</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>73.62918697961771</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,22 +28061,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -29050,7 +29052,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>-8.467341030740874e-13</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29764,7 +29766,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>-8.467341030740874e-13</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29983,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="M2" t="n">
-        <v>424.2958575201044</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34778,16 +34780,16 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>358.9284720888815</v>
       </c>
       <c r="L3" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="M3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -34796,7 +34798,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34857,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>205.1467494379689</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>434.0712383807921</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>630.404832368464</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>630.404832368464</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>630.404832368464</v>
       </c>
       <c r="O5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35009,13 +35011,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>630.4048323684639</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35027,16 +35029,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>30.91440664741867</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>118.3563415094343</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>56.52305090189816</v>
+        <v>22.9496038847592</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>469.682203560008</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35252,10 +35254,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35264,13 +35266,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,25 +35330,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>225.3346227128309</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35413,25 +35415,25 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081364</v>
       </c>
       <c r="N11" t="n">
-        <v>817.9914163440392</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>951.8870017674283</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458551</v>
+        <v>507.105909296743</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,22 +35491,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>951.8870017674282</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P12" t="n">
-        <v>40.54354510977532</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35580,7 +35582,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35647,28 +35649,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>418.1233902923636</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>951.8870017674283</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N14" t="n">
-        <v>951.8870017674283</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35735,7 +35737,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>951.8870017674283</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35744,7 +35746,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>255.6331853616618</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35802,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35817,7 +35819,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35881,13 +35883,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>679.5583048465032</v>
+        <v>756.3484258820594</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>1168.735187081365</v>
@@ -35896,16 +35898,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,13 +35962,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35975,13 +35977,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>571.1719812251592</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -36118,16 +36120,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
@@ -36136,13 +36138,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327043</v>
+        <v>305.8360165328637</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36215,7 +36217,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>118.392906878933</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36358,7 +36360,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
@@ -36373,7 +36375,7 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>679.5583048465032</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36431,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36443,10 +36445,10 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1210.83316575</v>
+        <v>1207.52018712909</v>
       </c>
       <c r="N24" t="n">
-        <v>469.2069973599073</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36458,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36598,25 +36600,25 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>531.8762684426488</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632091</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>327.8366918850629</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36683,19 +36685,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132072</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743907598</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
@@ -36759,7 +36761,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
@@ -36841,19 +36843,19 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>137.205594386779</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638367</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>164.4273484133669</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37069,7 +37071,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465032</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -37148,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>305.8360165328637</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,10 +37305,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -37315,19 +37317,19 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>162.5237874991044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632091</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>327.8366918850629</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37397,16 +37399,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="P36" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132072</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.86684891821204</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>277.9464139752279</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.8468454871729</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>464.5377398436901</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N37" t="n">
-        <v>447.1386852747319</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>424.3209540304256</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
-        <v>351.4296860956383</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
-        <v>170.3043132612852</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,22 +37548,22 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>54.27689488717215</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157523</v>
+        <v>395.0015281256938</v>
       </c>
       <c r="R38" t="n">
         <v>170.862691669754</v>
@@ -37616,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632091</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>327.8366918850629</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>519.9105708963853</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37634,16 +37636,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>852.0369646460714</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.86684891821204</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>277.9464139752279</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.8468454871729</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.5377398436901</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N40" t="n">
-        <v>447.1386852747319</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>424.3209540304256</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
-        <v>351.4296860956383</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>170.3043132612852</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473919</v>
+        <v>353.2215526444228</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>950.2921444733208</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>813.2712831402666</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37868,19 +37870,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>1207.52018712909</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>779.6755805253167</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.86684891821204</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>277.9464139752279</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.8468454871729</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.5377398436899</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
-        <v>447.1386852747319</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>424.3209540304256</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
-        <v>351.4296860956383</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q43" t="n">
-        <v>170.3043132612852</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
-        <v>950.2921444733208</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O44" t="n">
-        <v>813.2712831402666</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327045</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.86684891821204</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>277.9464139752279</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.8468454871729</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.5377398436899</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
-        <v>447.1386852747319</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>424.3209540304256</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
-        <v>351.4296860956383</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q46" t="n">
-        <v>170.3043132612852</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_40.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2492532.50967227</v>
+        <v>2492007.327303238</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>278692.0725916863</v>
+        <v>278692.072591686</v>
       </c>
     </row>
     <row r="9">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>332.4291174559667</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D2" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="E2" t="n">
-        <v>424.2958575201043</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>317.9431588491611</v>
       </c>
       <c r="Y2" t="n">
         <v>4.203262463343094</v>
@@ -831,10 +831,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -882,7 +882,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>143.5846376952537</v>
+        <v>169.016847353155</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>315.1641855428474</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
@@ -913,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>257.1273843349796</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>404.2032624633431</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -1062,16 +1062,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>114.3486586083467</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>22.45879568511439</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1122,7 +1122,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>155.9616349152188</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>161.0265270205335</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1299,16 +1299,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>94.4312367321524</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998642</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1390,7 +1390,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791316623</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1539,13 +1539,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>14.14416275345333</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>108.0570408708227</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
@@ -1609,7 +1609,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
@@ -1618,16 +1618,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629695</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>286.238853011216</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791314378</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.8153550780014</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -1672,10 +1672,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
@@ -1773,19 +1773,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>53.9004557069453</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>238.1835758754256</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1852,7 +1852,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932889</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -2010,19 +2010,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>119.8634463900534</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>35.34780583513513</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>157.6489550149833</v>
@@ -2095,13 +2095,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629699</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2730,7 +2730,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>122.9742767430536</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
@@ -2964,7 +2964,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>24.34318456170439</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>18.05677735225717</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>243.4206519573293</v>
+        <v>103.8284742946034</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800599</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3720,7 +3720,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>281.8658996315091</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
@@ -3729,7 +3729,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791316623</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>24.3431845617044</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>75.86622810093029</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3957,7 +3957,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800143</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
         <v>217.8665548556918</v>
@@ -4152,7 +4152,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573293</v>
+        <v>122.9742767430576</v>
       </c>
       <c r="U46" t="n">
         <v>275.6486707394257</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1654.761434047123</v>
+        <v>944.6683834787607</v>
       </c>
       <c r="C2" t="n">
-        <v>1318.974446717864</v>
+        <v>516.086709216029</v>
       </c>
       <c r="D2" t="n">
-        <v>890.3927724551322</v>
+        <v>87.50503495329731</v>
       </c>
       <c r="E2" t="n">
-        <v>461.8110981924006</v>
+        <v>57.77069415199655</v>
       </c>
       <c r="F2" t="n">
         <v>33.94366860160834</v>
@@ -4333,7 +4333,7 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L2" t="n">
         <v>874.0494664914149</v>
@@ -4345,7 +4345,7 @@
         <v>874.0494664914149</v>
       </c>
       <c r="O2" t="n">
-        <v>1107.976466382457</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P2" t="n">
         <v>1107.976466382457</v>
@@ -4372,10 +4372,10 @@
         <v>1696.368379531855</v>
       </c>
       <c r="X2" t="n">
-        <v>1681.26632015157</v>
+        <v>1375.213673623611</v>
       </c>
       <c r="Y2" t="n">
-        <v>1677.020600491627</v>
+        <v>1370.967953963669</v>
       </c>
     </row>
     <row r="3">
@@ -4412,7 +4412,7 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>739.9048540962709</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
         <v>1159.957753041174</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>288.1948928011053</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="C4" t="n">
-        <v>288.1948928011053</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="D4" t="n">
-        <v>288.1948928011053</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="E4" t="n">
-        <v>288.1948928011053</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="F4" t="n">
-        <v>288.1948928011053</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="G4" t="n">
-        <v>122.603617826933</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H4" t="n">
         <v>122.603617826933</v>
@@ -4491,19 +4491,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>308.7021231727439</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>726.9120049407049</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M4" t="n">
-        <v>726.9120049407049</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N4" t="n">
-        <v>930.0072868842942</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O4" t="n">
-        <v>1349.676536110076</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
         <v>1697.183430080417</v>
@@ -4530,10 +4530,10 @@
         <v>433.2298803720686</v>
       </c>
       <c r="X4" t="n">
-        <v>288.1948928011053</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="Y4" t="n">
-        <v>288.1948928011053</v>
+        <v>262.5057921365585</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>459.5121464321339</v>
+        <v>1267.07612131935</v>
       </c>
       <c r="C5" t="n">
-        <v>425.4100776559612</v>
+        <v>828.9336485027732</v>
       </c>
       <c r="D5" t="n">
-        <v>393.5406968708098</v>
+        <v>393.0238636772177</v>
       </c>
       <c r="E5" t="n">
-        <v>363.806356069509</v>
+        <v>74.67620151272533</v>
       </c>
       <c r="F5" t="n">
-        <v>339.9793305191208</v>
+        <v>50.84917596233712</v>
       </c>
       <c r="G5" t="n">
-        <v>339.9793305191208</v>
+        <v>50.84917596233712</v>
       </c>
       <c r="H5" t="n">
-        <v>50.84917596233711</v>
+        <v>50.84917596233712</v>
       </c>
       <c r="I5" t="n">
-        <v>50.43238658947712</v>
+        <v>50.43238658947713</v>
       </c>
       <c r="J5" t="n">
-        <v>50.43238658947712</v>
+        <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>480.1629125864612</v>
+        <v>1109.787858087175</v>
       </c>
       <c r="L5" t="n">
-        <v>1104.26369663124</v>
+        <v>1109.787858087175</v>
       </c>
       <c r="M5" t="n">
-        <v>1728.36448067602</v>
+        <v>1109.787858087175</v>
       </c>
       <c r="N5" t="n">
-        <v>2352.465264720799</v>
+        <v>1109.787858087175</v>
       </c>
       <c r="O5" t="n">
-        <v>2352.465264720799</v>
+        <v>1733.888642131954</v>
       </c>
       <c r="P5" t="n">
-        <v>2352.465264720799</v>
+        <v>1975.120543515262</v>
       </c>
       <c r="Q5" t="n">
-        <v>2352.465264720799</v>
+        <v>2521.619329473856</v>
       </c>
       <c r="R5" t="n">
         <v>2521.619329473856</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.967455657693</v>
+        <v>2521.619329473856</v>
       </c>
       <c r="T5" t="n">
-        <v>2217.900228530732</v>
+        <v>2521.619329473856</v>
       </c>
       <c r="U5" t="n">
-        <v>1958.677925847748</v>
+        <v>2521.619329473856</v>
       </c>
       <c r="V5" t="n">
-        <v>1958.677925847748</v>
+        <v>2521.619329473856</v>
       </c>
       <c r="W5" t="n">
-        <v>1553.822471258782</v>
+        <v>2116.763874884889</v>
       </c>
       <c r="X5" t="n">
-        <v>1294.097840617388</v>
+        <v>1697.6214114642</v>
       </c>
       <c r="Y5" t="n">
-        <v>885.8117169170416</v>
+        <v>1289.335287763854</v>
       </c>
     </row>
     <row r="6">
@@ -4637,13 +4637,13 @@
         <v>177.5531285070808</v>
       </c>
       <c r="G6" t="n">
-        <v>92.16803877326464</v>
+        <v>92.16803877326466</v>
       </c>
       <c r="H6" t="n">
-        <v>50.43238658947712</v>
+        <v>50.43238658947713</v>
       </c>
       <c r="I6" t="n">
-        <v>76.49605974993472</v>
+        <v>76.49605974993473</v>
       </c>
       <c r="J6" t="n">
         <v>401.054384716147</v>
@@ -4652,16 +4652,16 @@
         <v>1025.155168760926</v>
       </c>
       <c r="L6" t="n">
-        <v>1025.155168760926</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="M6" t="n">
-        <v>1025.155168760926</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
-        <v>1025.155168760926</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>1025.155168760926</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
         <v>1055.760431341871</v>
@@ -4701,49 +4701,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1012.274025098919</v>
+        <v>593.0357356940408</v>
       </c>
       <c r="C7" t="n">
-        <v>839.7123135821442</v>
+        <v>420.4740241772657</v>
       </c>
       <c r="D7" t="n">
-        <v>673.834320783667</v>
+        <v>254.5960313787884</v>
       </c>
       <c r="E7" t="n">
-        <v>504.0763170344042</v>
+        <v>139.0923358148018</v>
       </c>
       <c r="F7" t="n">
-        <v>327.3692629961604</v>
+        <v>139.0923358148018</v>
       </c>
       <c r="G7" t="n">
-        <v>161.7779880219881</v>
+        <v>139.0923358148018</v>
       </c>
       <c r="H7" t="n">
         <v>139.0923358148018</v>
       </c>
       <c r="I7" t="n">
-        <v>50.43238658947712</v>
+        <v>50.43238658947713</v>
       </c>
       <c r="J7" t="n">
-        <v>137.012071754167</v>
+        <v>50.43238658947713</v>
       </c>
       <c r="K7" t="n">
-        <v>411.7705263253026</v>
+        <v>325.1908411606127</v>
       </c>
       <c r="L7" t="n">
-        <v>829.9804080932637</v>
+        <v>743.4007229285737</v>
       </c>
       <c r="M7" t="n">
-        <v>1289.464275274177</v>
+        <v>1202.884590109487</v>
       </c>
       <c r="N7" t="n">
-        <v>1731.723078431821</v>
+        <v>1645.143393267131</v>
       </c>
       <c r="O7" t="n">
-        <v>2151.392327657602</v>
+        <v>2064.812642492913</v>
       </c>
       <c r="P7" t="n">
-        <v>2498.899221627944</v>
+        <v>2412.319536463255</v>
       </c>
       <c r="Q7" t="n">
         <v>2521.619329473856</v>
@@ -4752,7 +4752,7 @@
         <v>2500.201508179228</v>
       </c>
       <c r="S7" t="n">
-        <v>2340.960139477224</v>
+        <v>2340.960139477225</v>
       </c>
       <c r="T7" t="n">
         <v>2095.08069305568</v>
@@ -4761,16 +4761,16 @@
         <v>1816.647692308785</v>
       </c>
       <c r="V7" t="n">
-        <v>1529.692184179215</v>
+        <v>1529.692184179216</v>
       </c>
       <c r="W7" t="n">
         <v>1257.665779765507</v>
       </c>
       <c r="X7" t="n">
-        <v>1012.274025098919</v>
+        <v>1012.27402509892</v>
       </c>
       <c r="Y7" t="n">
-        <v>1012.274025098919</v>
+        <v>784.854354413028</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>707.7581132933927</v>
+        <v>1786.86986531245</v>
       </c>
       <c r="C8" t="n">
-        <v>269.6156404768161</v>
+        <v>1752.767796536277</v>
       </c>
       <c r="D8" t="n">
-        <v>106.9625828803175</v>
+        <v>1316.858011710722</v>
       </c>
       <c r="E8" t="n">
-        <v>77.22824207901677</v>
+        <v>883.0832668690169</v>
       </c>
       <c r="F8" t="n">
-        <v>53.40121652862856</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>53.40121652862856</v>
+        <v>141.0418768474983</v>
       </c>
       <c r="K8" t="n">
-        <v>714.2412710704069</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="L8" t="n">
-        <v>1375.081325612185</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="M8" t="n">
-        <v>1375.081325612185</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="N8" t="n">
-        <v>2035.921380153963</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="O8" t="n">
-        <v>2035.921380153963</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P8" t="n">
-        <v>2035.921380153963</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
@@ -4834,22 +4834,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2366.341725488303</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>2366.341725488303</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.341725488303</v>
+        <v>1964.569699866108</v>
       </c>
       <c r="W8" t="n">
-        <v>1961.486270899337</v>
+        <v>1963.754649317545</v>
       </c>
       <c r="X8" t="n">
-        <v>1542.343807478647</v>
+        <v>1948.65258993726</v>
       </c>
       <c r="Y8" t="n">
-        <v>1134.057683778301</v>
+        <v>1944.406870277317</v>
       </c>
     </row>
     <row r="9">
@@ -4886,22 +4886,22 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
         <v>1599.468199913098</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>741.4772326516127</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>568.9155211348376</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>403.0375283363603</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>307.6524407281256</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>307.6524407281256</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>142.0611657539532</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
         <v>142.0611657539532</v>
@@ -4986,28 +4986,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434797</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>2243.522190013252</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>1965.089189266357</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1678.133681136788</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1406.107276723079</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1160.715522056492</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>933.2958513705998</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5029,13 +5029,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G11" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H11" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436399</v>
       </c>
       <c r="I11" t="n">
         <v>102.2608402707796</v>
@@ -5044,49 +5044,49 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>1612.575493976557</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>2769.623329187108</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N11" t="n">
-        <v>3895.354312623555</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O11" t="n">
-        <v>3895.354312623555</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P11" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R11" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S11" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T11" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U11" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L12" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M12" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N12" t="n">
-        <v>751.6989919312866</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O12" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P12" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
         <v>1765.500601749588</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>790.3368563937634</v>
+        <v>1036.216302815308</v>
       </c>
       <c r="C13" t="n">
-        <v>617.7751448769883</v>
+        <v>863.6545912985331</v>
       </c>
       <c r="D13" t="n">
-        <v>451.897152078511</v>
+        <v>697.7765985000558</v>
       </c>
       <c r="E13" t="n">
-        <v>282.1391483292483</v>
+        <v>528.018594750793</v>
       </c>
       <c r="F13" t="n">
-        <v>267.852115244952</v>
+        <v>351.3115407125492</v>
       </c>
       <c r="G13" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H13" t="n">
         <v>102.2608402707796</v>
@@ -5229,22 +5229,22 @@
         <v>2538.261260176947</v>
       </c>
       <c r="T13" t="n">
-        <v>2292.381813755403</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="U13" t="n">
-        <v>2013.948813008508</v>
+        <v>2259.828259430053</v>
       </c>
       <c r="V13" t="n">
-        <v>1726.993304878938</v>
+        <v>1972.872751300483</v>
       </c>
       <c r="W13" t="n">
-        <v>1454.96690046523</v>
+        <v>1700.846346886775</v>
       </c>
       <c r="X13" t="n">
-        <v>1209.575145798642</v>
+        <v>1455.454592220187</v>
       </c>
       <c r="Y13" t="n">
-        <v>982.1554751127505</v>
+        <v>1228.034921534295</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
         <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771603</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H14" t="n">
-        <v>102.6776296436397</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
         <v>102.2608402707796</v>
@@ -5287,43 +5287,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O14" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P14" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="15">
@@ -5354,10 +5354,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>102.2970399865835</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>426.8553649527958</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
         <v>1107.588885023173</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>811.7546776883914</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C16" t="n">
-        <v>639.1929661716164</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D16" t="n">
-        <v>473.3149733731391</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E16" t="n">
-        <v>473.3149733731391</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F16" t="n">
-        <v>296.6079193348953</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G16" t="n">
-        <v>242.1630145804051</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H16" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
         <v>102.2608402707796</v>
@@ -5469,19 +5469,19 @@
         <v>2313.799635050031</v>
       </c>
       <c r="U16" t="n">
-        <v>2035.366634303136</v>
+        <v>2073.210164468793</v>
       </c>
       <c r="V16" t="n">
-        <v>1748.411126173566</v>
+        <v>1786.254656339223</v>
       </c>
       <c r="W16" t="n">
-        <v>1476.384721759858</v>
+        <v>1514.228251925515</v>
       </c>
       <c r="X16" t="n">
-        <v>1230.99296709327</v>
+        <v>1268.836497258927</v>
       </c>
       <c r="Y16" t="n">
-        <v>1003.573296407379</v>
+        <v>1041.416826573035</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
         <v>1221.073045167952</v>
@@ -5506,7 +5506,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H17" t="n">
         <v>102.6776296436396</v>
@@ -5518,49 +5518,49 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>1286.300469346936</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>1286.300469346936</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2443.348304557487</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>3569.079287993934</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L18" t="n">
-        <v>1082.867562242341</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>1082.867562242341</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1082.867562242341</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
         <v>1648.327823655249</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>790.3368563937634</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C19" t="n">
-        <v>617.7751448769883</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D19" t="n">
-        <v>451.897152078511</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E19" t="n">
-        <v>330.8229638057298</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F19" t="n">
-        <v>330.8229638057298</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5697,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T19" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U19" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V19" t="n">
-        <v>1726.993304878938</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W19" t="n">
-        <v>1454.96690046523</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X19" t="n">
-        <v>1209.575145798642</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.1554751127505</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="20">
@@ -5743,10 +5743,10 @@
         <v>793.2056155771606</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5758,10 +5758,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>1463.168637987181</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>1463.168637987181</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
         <v>2588.899621423628</v>
@@ -5828,31 +5828,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.7568773477108</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309357</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324584</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831957</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F22" t="n">
-        <v>267.852115244952</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G22" t="n">
         <v>102.2608402707796</v>
@@ -5934,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T22" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U22" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V22" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W22" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X22" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y22" t="n">
-        <v>1144.575496066698</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>3007.131363532228</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6071,22 +6071,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
         <v>1648.327823655249</v>
@@ -6226,28 +6226,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>3168.718933692368</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6302,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6384,52 +6384,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J28" t="n">
-        <v>188.8405254354649</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K28" t="n">
-        <v>463.5989800066004</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L28" t="n">
-        <v>881.8088617745615</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M28" t="n">
-        <v>1341.292728955475</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N28" t="n">
-        <v>1783.551532113119</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O28" t="n">
-        <v>2203.2207813389</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P28" t="n">
-        <v>2550.727675309242</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q28" t="n">
-        <v>2718.920450173575</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173575</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2594.704009018975</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2594.704009018975</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2316.271008272081</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>2029.315500142511</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1757.289095728803</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1511.897341062215</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1284.477670376323</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6463,28 +6463,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>3168.718933692368</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N29" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6539,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>811.7546776883914</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>639.1929661716164</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>473.3149733731391</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>303.5569696238763</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>126.8499155856325</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
         <v>102.2608402707796</v>
@@ -6648,25 +6648,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6700,28 +6700,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6776,31 +6776,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>970.9960463903949</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>798.4343348736198</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>632.5563420751425</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>462.7983383258798</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>286.091284287636</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>120.5000093134636</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>120.5000093134636</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6885,25 +6885,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6925,13 +6925,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6946,7 +6946,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N35" t="n">
         <v>2588.899621423627</v>
@@ -6976,13 +6976,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7122,7 +7122,7 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
         <v>2454.80183470935</v>
@@ -7186,40 +7186,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>3572.656769371182</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>4552.836435941488</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
-        <v>4552.836435941488</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>952.7568773477108</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C40" t="n">
-        <v>780.1951658309357</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D40" t="n">
-        <v>614.3171730324584</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E40" t="n">
-        <v>444.5591692831957</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F40" t="n">
-        <v>267.852115244952</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G40" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7359,25 +7359,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U40" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V40" t="n">
-        <v>1889.413325832886</v>
+        <v>1750.653604372319</v>
       </c>
       <c r="W40" t="n">
-        <v>1617.386921419177</v>
+        <v>1478.62719995861</v>
       </c>
       <c r="X40" t="n">
-        <v>1371.99516675259</v>
+        <v>1233.235445292023</v>
       </c>
       <c r="Y40" t="n">
-        <v>1144.575496066698</v>
+        <v>1233.235445292023</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H41" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436399</v>
       </c>
       <c r="I41" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>451.9501773887582</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>1286.300469346936</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>1286.300469346936</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2443.348304557487</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N41" t="n">
-        <v>3569.079287993934</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O41" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7493,22 +7493,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
         <v>1648.327823655249</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1181.319000882661</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C43" t="n">
-        <v>1008.757289365886</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D43" t="n">
-        <v>842.8792965674086</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E43" t="n">
-        <v>673.1212928181459</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F43" t="n">
-        <v>496.4142387799021</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G43" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
         <v>102.2608402707796</v>
@@ -7596,25 +7596,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2642.287896536276</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>2396.408450114731</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U43" t="n">
-        <v>2117.975449367836</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V43" t="n">
-        <v>2117.975449367836</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W43" t="n">
-        <v>1845.949044954127</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X43" t="n">
-        <v>1600.55729028754</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y43" t="n">
-        <v>1373.137619601648</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="44">
@@ -7636,10 +7636,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H44" t="n">
         <v>102.6776296436396</v>
@@ -7660,40 +7660,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>952.7568773477108</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C46" t="n">
-        <v>780.1951658309357</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D46" t="n">
-        <v>614.3171730324584</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E46" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F46" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G46" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H46" t="n">
         <v>102.2608402707796</v>
@@ -7833,25 +7833,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T46" t="n">
-        <v>2454.80183470935</v>
+        <v>2594.704009018975</v>
       </c>
       <c r="U46" t="n">
-        <v>2176.368833962455</v>
+        <v>2316.271008272081</v>
       </c>
       <c r="V46" t="n">
-        <v>1889.413325832886</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W46" t="n">
-        <v>1617.386921419177</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X46" t="n">
-        <v>1371.99516675259</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y46" t="n">
-        <v>1144.575496066698</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
   </sheetData>
@@ -7981,11 +7981,11 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
@@ -7993,10 +7993,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -8060,10 +8060,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>358.9284720888815</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8139,22 +8139,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>409.401749030468</v>
       </c>
       <c r="N4" t="n">
-        <v>205.1467494379689</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -8215,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>434.0712383807921</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="L5" t="n">
-        <v>630.404832368464</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>630.404832368464</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>630.404832368464</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>243.6685872558664</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8297,10 +8297,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>630.4048323684639</v>
+        <v>630.4048323684641</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>30.91440664741845</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>30.91440664741867</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8394,7 +8394,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.9496038847592</v>
+        <v>110.4038313238402</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="K8" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>667.5152066078567</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>469.682203560008</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8546,13 +8546,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>540.0049805212334</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8692,22 +8692,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>507.105909296743</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8780,19 +8780,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8935,10 +8935,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9002,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.03656536949883105</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9166,19 +9166,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>756.3484258820594</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458549</v>
@@ -9242,13 +9242,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>964.1848977889938</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9257,13 +9257,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>571.1719812251592</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9406,13 +9406,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>92.22506899525797</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9476,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>305.8360165328637</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9719,13 +9719,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1207.52018712909</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
@@ -9883,22 +9883,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9965,19 +9965,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
         <v>842.7780726850283</v>
@@ -10120,22 +10120,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,22 +10187,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,34 +10424,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,10 +10594,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10661,16 +10661,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10679,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10834,16 +10834,16 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>395.0015281256938</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
         <v>170.8626916697543</v>
@@ -10898,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10916,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,22 +11059,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>353.2215526444228</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11141,7 +11141,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11150,7 +11150,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>1207.52018712909</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11308,7 +11308,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -23427,13 +23427,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>55.87832135360793</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>110.0349065174853</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>37.46509486400015</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>48.19697732171672</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24141,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24651,10 +24651,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>34.67467827192972</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24852,7 +24852,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>138.5031525665292</v>
@@ -24888,7 +24888,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>69.71657238081424</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
         <v>139.5921776627258</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>2.220053416764699</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>81.78272691405301</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26073,10 +26073,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>462337.5540015644</v>
+        <v>462337.5540015645</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>462337.5540015643</v>
+        <v>462337.5540015644</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>462337.5540015642</v>
+        <v>462337.5540015644</v>
       </c>
     </row>
     <row r="11">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>462337.5540015644</v>
+        <v>462337.5540015643</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>536147.3198904084</v>
+        <v>536147.3198904083</v>
       </c>
       <c r="C2" t="n">
         <v>536147.3198904083</v>
@@ -26322,10 +26322,10 @@
         <v>536147.3198904083</v>
       </c>
       <c r="E2" t="n">
-        <v>526857.5841373521</v>
+        <v>526857.5841373522</v>
       </c>
       <c r="F2" t="n">
-        <v>526857.5841373523</v>
+        <v>526857.5841373522</v>
       </c>
       <c r="G2" t="n">
         <v>526857.5841373522</v>
@@ -26346,13 +26346,13 @@
         <v>526857.5841373521</v>
       </c>
       <c r="M2" t="n">
+        <v>526857.5841373522</v>
+      </c>
+      <c r="N2" t="n">
         <v>526857.5841373523</v>
       </c>
-      <c r="N2" t="n">
-        <v>526857.5841373522</v>
-      </c>
       <c r="O2" t="n">
-        <v>526857.5841373524</v>
+        <v>526857.5841373523</v>
       </c>
       <c r="P2" t="n">
         <v>526857.5841373522</v>
@@ -26368,13 +26368,13 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>66587.76789501631</v>
+        <v>66587.76789501635</v>
       </c>
       <c r="D3" t="n">
-        <v>11527.59554998264</v>
+        <v>11527.59554998259</v>
       </c>
       <c r="E3" t="n">
-        <v>182355.1092210498</v>
+        <v>182355.1092210497</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>53045.85463877262</v>
+        <v>53045.85463877266</v>
       </c>
       <c r="L3" t="n">
-        <v>9392.301726622207</v>
+        <v>9392.30172662217</v>
       </c>
       <c r="M3" t="n">
-        <v>152200.1709379877</v>
+        <v>152200.1709379876</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26429,19 +26429,19 @@
         <v>68000.69828933279</v>
       </c>
       <c r="F4" t="n">
-        <v>68000.69828933277</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="G4" t="n">
-        <v>68000.69828933275</v>
+        <v>68000.69828933279</v>
       </c>
       <c r="H4" t="n">
         <v>68000.69828933277</v>
       </c>
       <c r="I4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="J4" t="n">
-        <v>68000.69828933275</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="K4" t="n">
         <v>68000.69828933281</v>
@@ -26450,16 +26450,16 @@
         <v>68000.69828933281</v>
       </c>
       <c r="M4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="N4" t="n">
-        <v>68000.69828933277</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="O4" t="n">
         <v>68000.69828933281</v>
       </c>
       <c r="P4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933281</v>
       </c>
     </row>
     <row r="5">
@@ -26472,19 +26472,19 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>71956.21380800261</v>
+        <v>71956.21380800262</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="F5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="H5" t="n">
         <v>77718.23860579252</v>
@@ -26502,16 +26502,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>134702.4048469605</v>
+        <v>134702.4048469604</v>
       </c>
       <c r="C6" t="n">
-        <v>234376.4393941437</v>
+        <v>234376.4393941436</v>
       </c>
       <c r="D6" t="n">
         <v>293770.5585259942</v>
       </c>
       <c r="E6" t="n">
-        <v>198783.5380211769</v>
+        <v>198760.3136817945</v>
       </c>
       <c r="F6" t="n">
-        <v>381138.647242227</v>
+        <v>381115.4229028442</v>
       </c>
       <c r="G6" t="n">
-        <v>381138.6472422269</v>
+        <v>381115.4229028442</v>
       </c>
       <c r="H6" t="n">
-        <v>381138.6472422269</v>
+        <v>381115.4229028442</v>
       </c>
       <c r="I6" t="n">
-        <v>381138.6472422269</v>
+        <v>381115.4229028442</v>
       </c>
       <c r="J6" t="n">
-        <v>270124.1818972367</v>
+        <v>270100.957557854</v>
       </c>
       <c r="K6" t="n">
-        <v>328092.7926034541</v>
+        <v>328069.5682640714</v>
       </c>
       <c r="L6" t="n">
-        <v>371746.3455156045</v>
+        <v>371723.1211762219</v>
       </c>
       <c r="M6" t="n">
-        <v>228938.4763042393</v>
+        <v>228915.2519648566</v>
       </c>
       <c r="N6" t="n">
-        <v>381138.6472422269</v>
+        <v>381115.4229028443</v>
       </c>
       <c r="O6" t="n">
-        <v>381138.6472422271</v>
+        <v>381115.4229028443</v>
       </c>
       <c r="P6" t="n">
-        <v>381138.6472422269</v>
+        <v>381115.4229028442</v>
       </c>
     </row>
   </sheetData>
@@ -26792,7 +26792,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>630.404832368464</v>
+        <v>630.4048323684641</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
@@ -27014,13 +27014,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>206.1089748483597</v>
+        <v>206.1089748483598</v>
       </c>
       <c r="D4" t="n">
-        <v>37.11037423939297</v>
+        <v>37.11037423939283</v>
       </c>
       <c r="E4" t="n">
-        <v>610.7452967768884</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27038,13 +27038,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483597</v>
+        <v>206.1089748483598</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939297</v>
+        <v>37.11037423939283</v>
       </c>
       <c r="M4" t="n">
-        <v>610.7452967768884</v>
+        <v>610.7452967768879</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483597</v>
+        <v>206.1089748483598</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939297</v>
+        <v>37.11037423939283</v>
       </c>
       <c r="M4" t="n">
-        <v>610.7452967768884</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>101.3319306324442</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D2" t="n">
         <v>7.254829457195569</v>
       </c>
       <c r="E2" t="n">
-        <v>5.14113987318342</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -27444,7 +27444,7 @@
         <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>97.00787993732126</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27551,10 +27551,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27602,7 +27602,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>99.35319942466796</v>
+        <v>73.92098976676664</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>114.2728118504403</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27633,7 +27633,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>157.8236544515028</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27782,16 +27782,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>53.71176510342337</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>116.0443568814148</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>266.0749398648398</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>270.5241599567664</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28019,16 +28019,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>73.62918697961771</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>208.2197249473429</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28821,7 +28821,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>-8.608894466380582e-13</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -34701,11 +34701,11 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
@@ -34713,10 +34713,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -34780,10 +34780,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>358.9284720888815</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>409.401749030468</v>
       </c>
       <c r="N4" t="n">
-        <v>205.1467494379689</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>434.0712383807921</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="L5" t="n">
-        <v>630.404832368464</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>630.404832368464</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>630.404832368464</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>243.6685872558664</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,16 +35011,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K6" t="n">
-        <v>630.4048323684639</v>
+        <v>630.4048323684641</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>30.91440664741845</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35032,7 +35032,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>30.91440664741867</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -35093,13 +35093,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908068</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M7" t="n">
         <v>464.1251183645586</v>
@@ -35108,13 +35108,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.9496038847592</v>
+        <v>110.4038313238402</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="K8" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>667.5152066078567</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>469.682203560008</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35266,13 +35266,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>540.0049805212334</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35412,22 +35412,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081364</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>507.105909296743</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35500,19 +35500,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35655,10 +35655,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.03656536949883105</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35886,19 +35886,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>756.3484258820594</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458546</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>964.1848977889938</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35977,13 +35977,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>571.1719812251592</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36126,13 +36126,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
-        <v>92.22506899525797</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>305.8360165328637</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36217,13 +36217,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,13 +36439,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1207.52018712909</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -36457,7 +36457,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471158</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36685,19 +36685,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743907598</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
@@ -36761,7 +36761,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471158</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36931,10 +36931,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37314,10 +37314,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37399,16 +37399,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37554,16 +37554,16 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>395.0015281256938</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
         <v>170.862691669754</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37636,16 +37636,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37779,22 +37779,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>353.2215526444228</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458546</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37870,7 +37870,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>1207.52018712909</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37879,7 +37879,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -38028,7 +38028,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
